--- a/assignment 2/tables.xlsx
+++ b/assignment 2/tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panpeter/Desktop/PhD_Learning/HUDM6052 Psychometric II/HUDM6052_Psychometic_II/assignment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E945A2-2819-B446-AAFD-50412240273D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054F76A2-C9AB-D34F-BFC1-FECD07F79544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{76304F43-CFA6-3E4C-8B8F-27EF125A8E80}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="27320" windowHeight="20480" xr2:uid="{76304F43-CFA6-3E4C-8B8F-27EF125A8E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -132,10 +132,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5ECB71A-0411-6049-800E-10A9A4E028EC}">
   <dimension ref="B15:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="172" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="172" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,7 +468,7 @@
   </cols>
   <sheetData>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
@@ -493,49 +493,49 @@
       <c r="L15" s="4"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
       <c r="C17" s="1">
         <v>0.42699999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-0.86099999999999999</v>
+        <v>-0.85099999999999998</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -563,7 +563,7 @@
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>2</v>
       </c>
       <c r="C18" s="1">
@@ -598,7 +598,7 @@
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>3</v>
       </c>
       <c r="C19" s="1">
@@ -633,7 +633,7 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>4</v>
       </c>
       <c r="C20" s="1">
@@ -668,7 +668,7 @@
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>5</v>
       </c>
       <c r="C21" s="1">
@@ -703,57 +703,62 @@
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>1</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2">
-        <v>5</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2">
-        <v>5</v>
-      </c>
-      <c r="L22" s="2"/>
+      <c r="C22" s="3">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>1.474</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3">
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3">
+        <v>4.2779999999999996</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>4.8040000000000003</v>
+      </c>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2">
-        <v>1</v>
-      </c>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2"/>
+      <c r="C23" s="3">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="L23" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="C23:D23"/>
     <mergeCell ref="E22:F22"/>
@@ -762,11 +767,6 @@
     <mergeCell ref="G23:H23"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I23:J23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="K22:L22"/>
   </mergeCells>
